--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">CERTIF_FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201803102234341</t>
   </si>
   <si>
     <t xml:space="preserve">PC-FUND</t>
@@ -280,11 +283,13 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="돋움"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +339,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,27 +375,29 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7219512195122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2487804878049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4390243902439"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2926829268293"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3121951219512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8975609756098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7073170731707"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9463414634146"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3121951219512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5756097560976"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4585365853659"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7219512195122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8341463414634"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.3658536585366"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2829268292683"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.6487804878049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9073170731707"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0048780487805"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0390243902439"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0390243902439"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1658536585366"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.0731707317073"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9121951219512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1024390243902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5512195121951"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7804878048781"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4243902439024"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.29268292682927"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.9073170731707"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.0048780487805"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1024390243902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.390243902439"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7121951219512"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.29268292682927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,29 +454,29 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>201803102234341</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>5000000</v>
@@ -478,39 +485,39 @@
         <v>43169</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>10000000</v>
@@ -519,39 +526,39 @@
         <v>43169</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>2000000</v>
@@ -560,39 +567,39 @@
         <v>43169</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3500000</v>
@@ -601,39 +608,39 @@
         <v>43169</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3000000</v>
@@ -642,39 +649,39 @@
         <v>43169</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>4000000</v>
@@ -683,39 +690,39 @@
         <v>43169</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1000000</v>
@@ -724,39 +731,39 @@
         <v>43169</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2000000</v>
@@ -765,39 +772,39 @@
         <v>43169</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3000000</v>
@@ -806,39 +813,39 @@
         <v>43169</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>5000000</v>
@@ -847,39 +854,39 @@
         <v>43169</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>7000000</v>
@@ -888,39 +895,39 @@
         <v>43169</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>15000000</v>
@@ -929,13 +936,13 @@
         <v>43169</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">REFUND_ROLE</t>
   </si>
   <si>
+    <t xml:space="preserve">PROJECT_REQUEST_FLAG</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROJECT_ONOFF_FLAG</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">드디어 나왔다! ICELAND의 새 앨범</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">201803102249023</t>
@@ -372,32 +378,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9073170731707"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0048780487805"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0390243902439"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0390243902439"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1658536585366"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.0731707317073"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9121951219512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1024390243902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5512195121951"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7804878048781"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4243902439024"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.29268292682927"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.9073170731707"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.0048780487805"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1024390243902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.390243902439"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7121951219512"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.29268292682927"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="9.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,31 +458,34 @@
       <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>5000000</v>
@@ -485,39 +494,42 @@
         <v>43169</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>10000000</v>
@@ -526,39 +538,42 @@
         <v>43169</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>2000000</v>
@@ -567,39 +582,42 @@
         <v>43169</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3500000</v>
@@ -608,39 +626,42 @@
         <v>43169</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3000000</v>
@@ -649,39 +670,42 @@
         <v>43169</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>4000000</v>
@@ -690,39 +714,42 @@
         <v>43169</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1000000</v>
@@ -731,39 +758,42 @@
         <v>43169</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2000000</v>
@@ -772,39 +802,42 @@
         <v>43169</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3000000</v>
@@ -813,39 +846,42 @@
         <v>43169</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>5000000</v>
@@ -854,39 +890,42 @@
         <v>43169</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>7000000</v>
@@ -895,39 +934,42 @@
         <v>43169</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>15000000</v>
@@ -936,19 +978,22 @@
         <v>43169</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>PROJECT_ID</t>
   </si>
@@ -307,6 +307,21 @@
   <si>
     <t>15213872400788</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬 신과 함께</t>
+  </si>
+  <si>
+    <t>뮤지컬 신과함께.jpg</t>
+  </si>
+  <si>
+    <t>20180319040555.jpg</t>
+  </si>
+  <si>
+    <t>'죽는다고 다 끝난게 아닙니다.'</t>
+  </si>
+  <si>
+    <t>각 해당 공연 일자의 3일 이전까지만 환불이 가능합니다.</t>
   </si>
 </sst>
 </file>
@@ -370,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -379,15 +394,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -693,7 +713,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1269,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
@@ -1314,49 +1334,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="145.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="11">
         <v>500000</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="14">
         <v>43178</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8">
+      <c r="K14" s="11"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15">
         <v>43197</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="3">
@@ -1367,47 +1387,48 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="18">
         <v>500000</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="19">
         <v>43178</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10">
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19">
         <v>43212</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="Q15">
@@ -1417,48 +1438,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="144" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <v>43178</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10">
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
         <v>43195</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="Q16">
@@ -1468,19 +1490,116 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15213872400788</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>43178</v>
+      </c>
+      <c r="M17" s="8">
+        <v>43195</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15213998388299</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <v>750000</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43178</v>
+      </c>
+      <c r="N18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="J25" s="2"/>
     </row>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>PROJECT_ID</t>
   </si>
@@ -322,12 +327,16 @@
   </si>
   <si>
     <t>각 해당 공연 일자의 3일 이전까지만 환불이 가능합니다.</t>
+  </si>
+  <si>
+    <t>15213998388299</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -395,9 +404,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -408,6 +414,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -418,6 +425,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,33 +722,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="18" max="1025" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.125" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="18" max="1025" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
@@ -839,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>74</v>
       </c>
@@ -884,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
@@ -929,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -974,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
@@ -1064,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>69</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
@@ -1334,49 +1344,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>500000</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>43178</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15">
+      <c r="K14" s="10"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14">
         <v>43197</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="3">
@@ -1386,49 +1396,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>500000</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <v>43178</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19">
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18">
         <v>43212</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="Q15">
@@ -1438,49 +1448,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
         <v>43178</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19">
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18">
         <v>43195</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="17" t="s">
         <v>20</v>
       </c>
       <c r="Q16">
@@ -1490,42 +1500,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>15213872400788</v>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="J17" s="8">
         <v>43178</v>
       </c>
-      <c r="M17" s="8">
-        <v>43195</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>82</v>
+      <c r="N17" t="s">
+        <v>99</v>
       </c>
       <c r="O17" t="s">
         <v>26</v>
@@ -1540,73 +1547,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>15213998388299</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18">
-        <v>750000</v>
-      </c>
-      <c r="J18" s="8">
-        <v>43178</v>
-      </c>
-      <c r="N18" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="J25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="182">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -751,10 +751,10 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1801,6 +1801,9 @@
       <c r="J18" s="0" t="s">
         <v>159</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="L18" s="0" t="s">
         <v>160</v>
       </c>
@@ -1857,6 +1860,9 @@
       <c r="J19" s="0" t="s">
         <v>170</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="L19" s="0" t="s">
         <v>171</v>
       </c>
@@ -1912,6 +1918,9 @@
       </c>
       <c r="J20" s="0" t="s">
         <v>170</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>40</v>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CORNSALAD.PROJECT" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SQL" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="192">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -627,7 +627,40 @@
 4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 최대 1번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다. 책임을 지지 않습니다. 배송비가 변경되게 되면 수정전에 꼭 꼭 고객센터로 연락주세요. 070-4001-3583 입니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">select PROJECT_ID PROJECT_ID, PROJECT_CATEGORY_ID PROJECT_CATEGORY_ID, CATEGORY_SUB_ID CATEGORY_SUB_ID, PROJECT_NAME PROJECT_NAME, MEMBER_ID MEMBER_ID, IMAGE_ORINAME IMAGE_ORINAME, IMAGE_RENAME IMAGE_RENAME, REP_CONTENT REP_CONTENT, TARGET_AMOUNT TARGET_AMOUNT, CREATION_DATE CREATION_DATE, START_DATE START_DATE, END_DATE END_DATE, PAYMENT_DATE PAYMENT_DATE, REFUND_ROLE REFUND_ROLE, PROJECT_REQUEST_FLAG PROJECT_REQUEST_FLAG, PROJECT_ONOFF_FLAG PROJECT_ONOFF_FLAG, REPORT_COUNT REPORT_COUNT, CERTIF_FLAG CERTIF_FLAG from (select * from "CORNSALAD"."PROJECT")</t>
+    <t xml:space="preserve">152183749892742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[앵콜] 새로운 모습으로 돌아온 이어폰 선정리의 끝판왕 - 엠밴드2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sellerjieun3@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod1.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180324054629.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지긋지긋한 이어폰 줄꼬임은 이제 그만!! 신개념 이어폰 액세서리, -엠밴드-를 소개합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">♦ 펀딩을 받아야만 생산을 시작할 수 있는 크라우드펀딩의 특성 및 생산과정에서의 예상치 못한 상황들로 리워드 제공일이 지연될 수 있는 점을 알려드립니다. 이는 더 좋은 품질의 제품을 만들고자 함이니 많은 양해 부탁드립니다.
+♦ 약속된 일정으로부터 1달 이내 리워드 제공이 지연될 경우, 리워드 제공일이 지연이 예상되는 시점에 즉시 새소식과 SMS로 변경된 리워드 제공일을 알려드립니다. 단, 1달 이내에는 리워드 일정 지연 사유로 펀딩 취소는 불가합니다.
+♦ 1개월 이상 지연시, [hello@mad-d.com]로 환불 의사를 밝히시는 분들에게 수수료 포함 금액 100% 환불진행해드립니다. 
+♦ 후원금으로 리워드를 제작하는 크라우드 펀딩의 특성상, 단순변심으로 인한 교환 및 환불은 어렵습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select PROJECT_ID PROJECT_ID, PROJECT_CATEGORY_ID PROJECT_CATEGORY_ID, CATEGORY_SUB_ID CATEGORY_SUB_ID, PROJECT_NAME PROJECT_NAME, MEMBER_ID MEMBER_ID, IMAGE_ORINAME IMAGE_ORINAME, IMAGE_RENAME IMAGE_RENAME, REP_CONTENT REP_CONTENT, TARGET_AMOUNT TARGET_AMOUNT, CREATION_DATE CREATION_DATE, START_DATE START_DATE, END_DATE END_DATE, PAYMENT_DATE PAYMENT_DATE, REFUND_ROLE REFUND_ROLE, PROJECT_REQUEST_FLAG PROJECT_REQUEST_FLAG, PROJECT_ONOFF_FLAG PROJECT_ONOFF_FLAG, REPORT_COUNT REPORT_COUNT, CERTIF_FLAG CERTIF_FLAG, REFUND_FLAG REFUND_FLAG from (select * from "CORNSALAD"."PROJECT")</t>
   </si>
 </sst>
 </file>
@@ -711,21 +744,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -749,33 +774,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="R25" activeCellId="0" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.25"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.77560975609756"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0048780487805"/>
+    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="8.77560975609756"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.3317073170732"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.77560975609756"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -834,943 +850,939 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="O2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>500000</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="n">
+      <c r="O3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>5000000</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="n">
+      <c r="O4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>1200000</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2" t="n">
+      <c r="O5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="2" t="n">
+      <c r="O6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="2" t="n">
+      <c r="O7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>800000</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="J8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="2" t="n">
+      <c r="O8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>1100000</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="J9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2" t="n">
+      <c r="O9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <v>1200000</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="J10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="2" t="n">
+      <c r="O10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>500000</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="J11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="2" t="n">
+      <c r="O11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>1200000</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="J12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="2" t="n">
+      <c r="O12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>600000</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="J13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="2" t="n">
+      <c r="O13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>800000</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="J14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="2" t="n">
+      <c r="O14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="0" t="s">
         <v>32</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="2" t="n">
+      <c r="O15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="0" t="s">
         <v>32</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2" t="n">
+      <c r="O16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="0" t="s">
         <v>32</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="2" t="n">
+      <c r="O17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="0" t="s">
         <v>32</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>152</v>
       </c>
@@ -1792,16 +1804,16 @@
       <c r="G18" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>5000000</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="0" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="0" t="s">
@@ -1810,26 +1822,26 @@
       <c r="M18" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="2" t="s">
         <v>162</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="2" t="n">
+      <c r="P18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>163</v>
       </c>
@@ -1854,13 +1866,13 @@
       <c r="H19" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>1500000</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="0" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="0" t="s">
@@ -1869,26 +1881,26 @@
       <c r="M19" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>173</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="2" t="n">
+      <c r="P19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>174</v>
       </c>
@@ -1913,13 +1925,13 @@
       <c r="H20" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>300000</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="0" t="s">
@@ -1928,29 +1940,88 @@
       <c r="M20" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="2" t="s">
         <v>180</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="2" t="n">
+      <c r="P20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S20" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="0" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1965,24 +2036,24 @@
   </sheetPr>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.77560975609756"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CORNSALAD.PROJECT" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="466">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -749,6 +749,834 @@
 플랫폼 수수료(5.5%)와 결제 수수료(카드 3.08%, 이체 715원) 제외하고 환불됩니다.
 3. 파손 및 불량품은 배송일로부터 10일 내 새 제품으로 무료 교환해드립니다. (소비자 과실 제외)
 4.후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 최대 1번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198044252511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈물의 위로, Comfort with tears 눈물맨투맨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sellerjieun5@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65dcfccf-6022-4964-93cf-2544ffb31ec0.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325212321.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 아직 따뜻함이 필요한 그대에게 내가 흘렸던 눈물을 통해 작은 용기와 위로를 전하고자 합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마감직후 곧바로 주문된 수량만큼만 제작에 들어가기 때문에 단순 변심에 의한 교환이나 환불이 어렵습니다.
+1) 단순 변심에 의한 환불은 불가능합니다. 
+2) 예상 전달일로부터 15일 이상 전달 지연 시 수수료 정산 후 환불 가능 합니다.
+3) 파손, 불량품 수령시 7일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 책임을 지지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198115206412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일상속에 잊혀지던 편안함. 에브리웨어 가디건</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc155112-c69a-4deb-a3df-f0f1ee3762fe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325213403.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We design a tool that can be used for a long time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.펀딩 마감 후에는 단순변심에 의한 환불은 불가능합니다. 
+2.사이즈,색상으로 인한 교환, 환불은 불가능합니다. (상세사진과 사이즈표를 참고해주세요.) 
+3.불량품은 배송일로부터 15일 내 새 제품으로 무료 교환해드립니다. 
+4.모니터 해상도에 따라 색상에 작은 차이가 있을 수 있습니다.
+5.예상 전달일로부터 7일 이상 전달 지연 시 수수료 포함 환불이 가능합니다.
+6.후원자의 배송지 개재 오류, 후원자가 진행자에게 사전 고지
+없이 배송지를 수정해 배송사고가 발생할 경우 책임을 지지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198168666113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">패션 오카야마산 캔버스로 만든 1950년대 군인 활동화, 캐치볼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a477759c-3d86-40ee-8da8-0435bcd0a286.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325214303.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950~60년대 스웨덴, 벨기에 군인들이 운동을 즐기기 위해 신었던 활동화를 다시 만들다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 가능합니다. 가능 시 수수료 포함 환불 가능합니다.
+2) 예상 전달일로부터 10일 이상 전달 지연 시 수수료 포함 후 환불 가능 합니다.
+3) 파손, 불량품 수령시 7일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 최대 1번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198245139114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">페이크 레더로 완성된 고급스러움: 낫아워스 프로퍼 새들백</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d98fa6b4-49ab-4a28-b444-bbdcb88767be.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325215501.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAKE LEATHER로 만든 세련되고 모던한, 프로퍼 새들백(PROPER SADDLE BAG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* 펀딩 마감 후 곧바로 제작에 들어가는 제품으로 단순변심에 의한 환불은 불가합니다.
+* 펀딩 마감 후, 컬러 교환 및 환불이 불가한 점 양해 부탁드립니다.(상세사진과 사이즈표를 참고해주세요.)
+* 컬러는 모니터 환경에 따라 조금의 차이가 있을 수 있습니다.
+* 제품 불량의 경우 배송일로부터 7일 이내에 문의 주시면 새 제품으로 무료 교환해드립니다. 
+* 배송 주소지 및 연락처 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 날 경우 보상이 불가합니다.
+* 예상 전달일로부터 영업일 기준 20일 이상 전달 지연 시 수수료 포함 전액 환불 가능합니다. 
+** 문의처: notoursteam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198281860115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좀 특별한 주얼리 Uni J 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473d8297-e0f9-492e-bd0c-98eed6b5ec6f.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325220201.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라운드 안에서 표현된 럭셔리  일상과 이벤트를 모두 담아내다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/05/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능 합니다. 
+2) 예상 전달일로부터 10이내이상 전달 지연 시 환불 가능 합니다.
+3) 파손, 불량품 수령시 5일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담합니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 책임을 지지 않습니다.
+그 외 문의 사항 및 환불에 대한 사항은 카카오톡 아이디 : buffalo221로 문의 부탁 드립니다. 
+감사합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198314524316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄, 손목위의 반짝이는 보석</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ca2092b-6ca2-46c4-90c1-7be1d986f722.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325221312.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손위의 작은 반짝임, 활짝 피어난 꽃, 고즈넉한 오후</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 펀딩이 종료된 이후에는 단순 변심에 의한 교환/환불은 불가능합니다. 
+2) 예상 전달일로부터 14일 이상 전달 지연 시 수수료를 제외한 환불이 가능 합니다.
+3) 파손, 불량품 수령시 제품 배송완료 날짜로부터 1일 이내에 텀블벅에서 창작자에게 메시지를 통해 교환 신청을 해주셔야 합니다. 배송 시 파손, 불량품 교환 시 발생하는 배송비는 진행자 부담입니다. 단 핸드메이드 제품이므로 약간의 스크래치나 오차는 있을 수 있음을 감안해주시기 바랍니다. 사용 중 파손의 경우 A/S는 무료이나, AS기한은 1개월내에만 가능하며 원석이 빠진경우엔 원석의 비용이 청구됩니다. 
+A/S시 왕복배송비는 구매자 부담입니다. 불량품에 대한 배송비는 부담으로 오월의 카탈로그 themayhome@naver.com 으로 연락주세요
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 책임을 지지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198424478217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피부채식무스투스 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325222616.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데일리 피부정화 습관, 클로로필 앰플</t>
+  </si>
+  <si>
+    <t xml:space="preserve">펀딩 결제는 예약 상태로 유지되다가, 펀딩 마감일 다음 영업일 2018.04.09 17시에 모두 함께 진행됩니다. 결제 정보 변경은 결제가 진행되기 전까지 언제나 가능합니다. 참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.08 이후로는 불가합니다.
+- 제품 하자로 인한 교환 시, 발생하는 비용은 전액 메이커가 부담합니다
+- 리워드 수령 10일 이내 제품 하자로 인한 교환/반품/AS 문의는 070-4258-7750 로 신청 가능합니다. 
+- 펀딩 기간에는 자유롭게 마이페이지에서 펀딩 취소 가능하지만, 펀딩 기간 이후, 단순 변심으로 인한 교환이나 환불은 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198466132818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">허브가든드레스퍼퓸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize (1).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325223141.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조향사의 안전한 향료 처방 : 포레스트 허브가든 드레스 퍼퓸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 펀딩 기간에는 마이페이지에서 펀딩 취소 가능하지만, 펀딩 마감 후, 단순 변심으로 인한 교환이나 환불은 불가합니다.
+- 리워드 수령 7일 이내 제품 하자로 인한 교환/반품/AS는 imsunya@naver.com 으로 신청 가능합니다. 
+- 제품 하자로 인한 교환 시, 발생 비용은 전액 루이스네프가 부담합니다.
+- 제품 하자가 아닌 서포터님의 부주의로 인한 제품 손상은 비용 부담 하에 유상 수리를 해드립니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198765880314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">더위안녕! 냉수매트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sellerjieun7@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">냉수매트.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325232112.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한여름 불볕더위 이제 안녕!, 전기료까지 걱정없는 시원한 여름밤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.10 이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198793048115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공간을 꾸미는 타일 '오울루'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타일.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325232755.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간단한 조립을 통해 벽, 바닥 등 다양한 공간을 꾸밀 수 있는 “디자인 타일”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.13 이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198946904918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와인병을 업사이클링한 무드등</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize (14).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325235939.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와인병을 업사이클링한 무드등! 와인병에 예술을 더하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.20 이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198833648716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나의 일상속 두근두근, 향기나는 '디즈니_미니램프'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize (4).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325233435.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매일 똑같은 일상에 ‘설렘’을 선물합니다. 빛과 향기로 여러분의 공간을 채워줄 ‘디즈니_미니램프’ 입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.23이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198909819917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daum 웹툰 -무장- 주인공 권 피규어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize (11).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325234529.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daum 웹툰에서 연재 중인 김철현 작가님의 -무장- 주인공 '권'이가 드디어 캐릭터 피규어로 태어났습니다! 고려 무신정권 시대를 배경으로 한 우리 민족 고유의 캐릭터! Daum 웹툰 최초의 피규어인 -무장- '권' 피규어에 많은 성원 부탁드립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.18이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152199024030219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">당신의 공간에 환상을 더하세요. 아트 브랜드, 이해앤다다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize (1).png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326000410.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠'과 꿈을 소재로 작업해 오고 있는 아트 프로젝트 듀오가 만드는 침구브랜드 '이해앤다다'. 더 많은 사람들의 꿈이 따뜻할 수 있도록 그들의 세계로 초대합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.04.22 이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152199094280920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 안의 숲속</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize (22).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326001625.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">직장인의 작은 정원 프로젝트 - 시계화분 새순이</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2016.04.27이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15219678335241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아카펠라내한공연 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180325175259.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">남성 아카펠라 그룹 Last Call의 새로운 도전, 라이브 인 서울!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">펀딩 결제는 예약 상태로 유지되다가, 펀딩 마감일 다음 영업일 2018.03.26 17시에 모두 함께 진행됩니다. 결제 정보 변경은 결제가 진행되기 전까지 언제나 가능합니다. 참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2018.03.25 이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220362261523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #힐디오감사콘서트 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c24@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힐디오.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326155933.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힐링라디오 감사 콘서트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메이커가 약속한 가장 빠른 리워드 발송은 2016.01.16이며, 리워드마다 발송 시작일이 다를 수 있으니 펀딩 전, 꼭 확인해 주세요.
+리워드를 제작하고 생산하는 과정에서 예상치 못한 상황으로 리워드 발송이 메이커가 약속한 날짜보다 지연 또는 불가할 수 있으며, 관련한 환불 및 교환은 메이커가 정한 규정에 따릅니다. 스토리 하단의 리워드 발송 예상 변동 기간 및 교환 / 환불 / AS 정책을 참고 해주세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220381836964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장애인연극헬로오즈 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장애인 배우들이 들려주는, 책에는 없는 이야기 : 연극[헬로, 오즈]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-이 프로젝트를 후원해주신 서포터분들께 감사의 표시인 
+리워드의 제공일정을 준수하기 위해 최선을 다할 것을 약속합니다.
+-펀딩을 받아야만 생산을 시작할 수 있는 크라우드펀딩의 특성 및
+생산과정에서의 예상치 못한 상황들로 리워드 제공일이 다소 지연될 수 있는 점을 알려드립니다.
+-리워드 제작과 발송이 예정보다 늦어질 경우,
+[새소식]과 [SMS]로 변경된 리워드 제공일을 알려드리겠습니다.
+*리워드 발송이 제공예상일(16.12.12)보다 일주일 이상 지연될 경우, 
+- 리워드 지연이 예상되는 시점에 즉시 [새소식]과 [SMS]로 변경된 제공일을 알려드립니다.
+- 단, 리워드 일정 지연 사유로 펀딩 취소는 불가합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220388989719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#뮤지컬투모로우모닝 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최고의 브리티쉬 로맨틱 뮤지컬 &lt;투모로우 모닝&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메이커가 약속한 가장 빠른 리워드 발송은 2017.06.13이며, 리워드마다 발송 시작일이 다를 수 있으니 펀딩 전, 꼭 확인해 주세요.
+리워드를 제작하고 생산하는 과정에서 예상치 못한 상황으로 리워드 발송이 메이커가 약속한 날짜보다 지연 또는 불가할 수 있으며, 관련한 환불 및 교환은 메이커가 정한 규정에 따릅니다. 스토리 하단의 리워드 발송 예상 변동 기간 및 교환 / 환불 / AS 정책을 참고 해주세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152204017238819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#진주같은영화제 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화제.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326135747.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서부경남 유일의 독립영화축제, 제 8회 진주같은영화제로 오세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주같은영화제는 9월 15일~19일 동안 열리는 서부경남 유일의 독립영화축제입니다. 영화상영, 감독과의 대화, 야외공연, 심야상영, 폐막파티에 누구나 와서 즐겨봐요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152203975804215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뮤지컬비커밍맘 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;세일링드림&gt;의 쉼없는 도전! 가족성장뮤지컬 &lt;비커밍맘&gt;을 완성해주세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00% 이상 모이면 리워드가 제공되는 프로젝트
+이 프로젝트는 펀딩 마감일까지 목표 금액이 100% 모이지 않으면 리워드가 제공되지 않으며, 결제 또한 진행되지 않습니다.
+펀딩 결제/취소/변경에 대한 안내
+펀딩 결제는 예약 상태로 유지되다가, 펀딩 마감일 다음 영업일 2017.09.08 17시에 모두 함께 진행됩니다. 결제 정보 변경은 결제가 진행되기 전까지 언제나 가능합니다. 참여한 펀딩 정보 변경은 나의 펀딩현황에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은 2017.09.07 이후로는 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152203986584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팽목의자장가 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그림1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326135344.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세월호1주기 추모 현대무용 공연: [팽목의 자장가]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세월호 참사가 일어난 지 1주년을 추모하며 '아직은 우리 사회가 좀 더 그리워해야 할-' 이들을 4월 17일과 18일 이틀 동안 춤으로 기억하고 싶습니다. 그날 밤, 팽목항에서 유난히 잠을 이루지 못할 가족분들에게 '움직임의 자장가-'를 불러드리기 위한 추모 공연을 마련했습니다. 미욱한 움직임이겠지만, 이 작은 노력들을 통해 1년 후, 다시 돌아올 우리의 봄이 너무 시리지 않았으면 하는 바람입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15219999193621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUST ALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e10d7d6-598c-4eac-9398-c9ecfb9bc472.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326024553.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">창작집단 시파티만99번째의 창작뮤지컬[JUST ALICE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능합니다.
+2) 티켓 양도 가능합니다.
+3) 예상 전달일로부터 선물 전달이 3달 이상 지연 시 환불 요청해주시면 가능하며 환불은 전액 환불 가능합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220006437222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les miserables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7e2fc59-d8e9-4652-94de-0f2fa1563784.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326025951.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 듣고 있는가!  Les miserables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능합니다.
+2) 예상 전달일로부터 1일 이상 전달 지연 시 수수료 제외 후, 환불 가능 합니다. (리워드 상품은 공연 당일, 현장에서만 받아보실 수 있습니다. 공연장 미방문 시, 상품 수령 및 환불 불가합니다.)
+3) 티켓 양도 가능합니다. (티켓 양도 시, 창작자에게 문의하기를 통해 선연락 바랍니다.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220013858693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 파우스트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abaf60e2-7cf6-4ab1-9069-2180c9270f46.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326031007.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">창작예술집단 보광극장 창작극 [2018 파우스트]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능 합니다. 
+2) 예상 전달일로부터 5일 이상 전달 지연 시 수수료 제외 후 환불 가능 합니다.
+3) 파손, 불량품 수령시 5일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 책임을 지지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220018939184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x 그광기에 대하여</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567dcb18-4737-4889-9757-62a337f2b930.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326031835.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">창작집단농담의 8번째 공연 [x 그광기에 대하여]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능합니다.
+2) 예상 전달일로부터 7일 이상 전달 지연 시 수수료 제외 후 환불 가능 합니다,
+3) 파손, 불량품 수령시 7일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 책임을 지지 않습니다.
+5) 티켓 양도 가능합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220024738805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관찰일기 : 대낮의 꿈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84685506-8a89-4efe-9690-96ca01e57502.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326032932.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">극단 뒷광대 두번째 프로젝트 - 관찰일기 : 대낮의 꿈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능합니다. 
+2) 예상 전달일로부터 7일 이상 전달 지연 시 수수료 포함 환불 가능 합니다.
+3) 파손, 불량품 수령시 10일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 최대 1번까지 재발송 해드립니다. 배송비 부담은 책임을 지지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220031712136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용서 받은 시간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">캡처.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326034044.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뮤지컬 복순이할배 제작진의 신작 연극 -용서 받은 시간-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능합니다. 
+2) 예상 전달일로부터 15일 이상 전달 지연 시 수수료 제외 후 환불 가능 합니다.
+3) 파손, 불량품 수령시 30일 이내로 교환이 가능합니다. 파손, 불량품 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 (최대 1번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다.)
+5) 티켓 양도 가능합니다.
+프로젝트에 대해 문의사항이 있으신가요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220465990497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몽상 : Daydreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">캡처1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326154614.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감성 페스티벌 -몽상 : Daydreaming-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 단순 변심에 의한 환불은 불가능합니다. 가능 시 수수료 포함 후 환불 가능합니다.
+2) 예상 전달일로부터 7일 이상 전달 지연 시 수수료 제외 후 환불 가능 합니다.
+3) 파손, 불량품 수령시 15일 이내로 교환이 가능합니다. 교환 시 발생하는 배송비는 진행자 부담입니다.
+4) 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 최대 2번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220472298458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핵쓰레기 너머, 나비 날다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4e10c8dd-8a8b-4c08-a26d-c4b42fa837ed.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326155405.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핵쓰레기 너머, 나비 날다 - 2018 탈핵 퍼레이드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마감일 이후, 단순 변심에 의한 교환과 환불은 불가합니다. 파손, 불량품 배송시 배송일로부터 30일 이내에 무료 교환을 약속합니다. 교환시 발생되는 배송비는 창작자가 부담합니다. 배송 예정일로부터 7일 이상 발송이 지연되면 수수료 제외 후 환불 가능 합니다. 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 1번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220142780433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-HE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리얼비타민</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c6@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326064733.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">넌 아직도 합성비타민 먹니? 난 천연비타민 먹어!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 제품 하자로 인한 교환 시, 발생하는 비용은 전액 메이커가 부담합니다
+- 리워드 수령 07일 내 동일 증상으로 2번 이상 교환 시, 환불 가능합니다. 
+- 제품 하자가 아닌 서포터님의 단순변심이나, 부주의로 인한 제품 하자는 환불이나 교환이 불가능합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220150985065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마시는 링거</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마시는링거.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326065824.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맛있는 신개념 피로회복제 마시는 링거 #링티</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 펀딩 기간에는 자유롭게 마이페이지에서 펀딩 취소 가능하지만, 펀딩 마감 후, 단순 변심으로 인한 교환이나 환불은 불가합니다.
+- 리워드 수령 7일 이내 제품 하자로 인한 교환/반품/AS는 lingerwater@naver.com으로 신청 가능합니다. 
+- 제품 하자로 인한 교환 시, 발생 비용은 전액 (주)링거워터가 부담합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220157018216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밀스드링크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c22@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밀스드링크.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326071134.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식사의 새로운 패러다임! 마시는 액상형 식사, 밀스 드링크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 제품 하자로 인한 교환 시 발생하는 비용은 전액 메이커가 부담합니다
+- 리워드 수령 15일 이내 제품 하자로 인한 교환/수리 문의는 1644-1567 로 신청 가능합니다. 
+- 단순 변심에 의한 교환/환불은 리워드 수령 후 7일 이내(서포터 왕복 배송비 부담)에 가능합니다.
+- 리워드를 개봉하시거나 사용하여 가치가 훼손된 경우(포장의 훼손 포함)에는 7일 이내라고 하여도 반품, 교환 및 환불이 불가합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220166971188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식사대용 모닝빵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c14@cornsalad.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모닝빵.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326072623.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모닝빵의 편견을 깨뜨리다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 제품 하자로 인한 교환/수리 시, 발생하는 비용은 전액 메이커가 부담합니다
+- 리워드 수령 07일 내 동일 증상으로 3번 이상 수리 시, 환불 가능합니다. 
+- 리워드 수령 07일 이내 제품 하자로 인한 교환/수리 문의는 로 신청 가능합니다. 
+- 제품 하자가 아닌 서포터님 부주의로 인한 제품 손상은 유상수리해 드립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152201732428510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASB-HA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신개념 티(TEA)버터</t>
+  </si>
+  <si>
+    <t xml:space="preserve">티버터.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326073714.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바르기만 해도 빵이 맛있어지는 신개념 티(TEA)버터</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 펀딩 기간에는 자유롭게 마이페이지에서 펀딩 취소 가능하지만, 펀딩 마감 후 단순 변심으로 인한 교환이나 환불은 불가합니다.
+- 리워드 수령 2일 이내 제품 하자로 인한 교환 문의는 mintea513@naver.com 로 신청 가능합니다. 
+- 제품 하자가 아닌 서포터님 부주의로 (냉장 및 냉동인데, 상온 및 실온 보관) 인한 제품 손상은 환불이 불가능 합니다.
+- 제품 하자로 인한 교환 시, 발생 비용은 전액 민티가 부담합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152201819849312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반려동물 수제간식 : 로스팅 푸디웜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">푸디웜.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326075501.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">친환경 반려동물 수제간식 영양만점 곤충사료 : 로스팅 푸디웜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 단순 변심으로 인한 교환/환불은 제품 수령 후 7일 이내에만 가능하며, 왕복배송비 6,000원이 발생 합니다. 
+2. 제품 하자로 인한 교환 시 발생 비용은 전액 ‘푸디웜'이 부담합니다. 
+3. 제품 하자로 인한 교환은 봉제 불량 및 부자재 불량의 경우 가능합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">152201947063216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비건초콜릿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비건초콜릿.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326081353.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">설탕,버터,크림NO!새해엔 소중한 사람들에게 특별한선물을 "비건초콜릿"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 제품 하자로 인한 교환/수리 시, 발생하는 비용은 전액 메이커가 부담합니다
+- 리워드 수령 7일 내 리워드 자체의 문제가 발견될시에 "교환"만 가능합니다. 
+- 리워드 수령 2017 년 이내 제품 하자로 인한 교환문의는 rhythmnbody@naver.com 로 신청 가능합니다. 
+- 제품 하자가 아닌 서포터님 부주의로 인한 제품 손상은 유상수리해 드립니다.</t>
   </si>
   <si>
     <t xml:space="preserve">select PROJECT_ID PROJECT_ID, PROJECT_CATEGORY_ID PROJECT_CATEGORY_ID, CATEGORY_SUB_ID CATEGORY_SUB_ID, PROJECT_NAME PROJECT_NAME, MEMBER_ID MEMBER_ID, IMAGE_ORINAME IMAGE_ORINAME, IMAGE_RENAME IMAGE_RENAME, REP_CONTENT REP_CONTENT, TARGET_AMOUNT TARGET_AMOUNT, CREATION_DATE CREATION_DATE, START_DATE START_DATE, END_DATE END_DATE, PAYMENT_DATE PAYMENT_DATE, REFUND_ROLE REFUND_ROLE, PROJECT_REQUEST_FLAG PROJECT_REQUEST_FLAG, PROJECT_ONOFF_FLAG PROJECT_ONOFF_FLAG, REPORT_COUNT REPORT_COUNT, CERTIF_FLAG CERTIF_FLAG, REFUND_FLAG REFUND_FLAG from (select * from "CORNSALAD"."PROJECT")</t>
@@ -761,7 +1589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="돋움"/>
@@ -790,6 +1618,12 @@
       <sz val="11"/>
       <name val="Dialog"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -835,7 +1669,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -849,6 +1683,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,24 +1707,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="8.13170731707317"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0926829268293"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.13170731707317"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0926829268293"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.3658536585366"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.13170731707317"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.9463414634146"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.13170731707317"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +2836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>174</v>
       </c>
@@ -2057,7 +2895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>181</v>
       </c>
@@ -2088,6 +2926,9 @@
       <c r="J21" s="0" t="s">
         <v>187</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="L21" s="0" t="s">
         <v>188</v>
       </c>
@@ -2101,7 +2942,7 @@
         <v>32</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>0</v>
@@ -2113,7 +2954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>191</v>
       </c>
@@ -2172,7 +3013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>199</v>
       </c>
@@ -2203,7 +3044,7 @@
       <c r="J23" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="0" t="s">
         <v>205</v>
       </c>
       <c r="L23" s="0" t="s">
@@ -2231,7 +3072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>209</v>
       </c>
@@ -2262,7 +3103,7 @@
       <c r="J24" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="0" t="s">
         <v>214</v>
       </c>
       <c r="L24" s="0" t="s">
@@ -2287,13 +3128,2178 @@
         <v>33</v>
       </c>
       <c r="S24" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>450000</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>3110000</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="0" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2308,24 +5314,24 @@
   </sheetPr>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.13170731707317"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>218</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/finalp/src/main/webapp/resources/db/PROJECT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="472">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -1155,33 +1155,16 @@
 리워드를 제작하고 생산하는 과정에서 예상치 못한 상황으로 리워드 발송이 메이커가 약속한 날짜보다 지연 또는 불가할 수 있으며, 관련한 환불 및 교환은 메이커가 정한 규정에 따릅니다. 스토리 하단의 리워드 발송 예상 변동 기간 및 교환 / 환불 / AS 정책을 참고 해주세요.</t>
   </si>
   <si>
-    <t xml:space="preserve">15220381836964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASB-TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장애인연극헬로오즈 프로젝트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장애인 배우들이 들려주는, 책에는 없는 이야기 : 연극[헬로, 오즈]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-이 프로젝트를 후원해주신 서포터분들께 감사의 표시인 
-리워드의 제공일정을 준수하기 위해 최선을 다할 것을 약속합니다.
--펀딩을 받아야만 생산을 시작할 수 있는 크라우드펀딩의 특성 및
-생산과정에서의 예상치 못한 상황들로 리워드 제공일이 다소 지연될 수 있는 점을 알려드립니다.
--리워드 제작과 발송이 예정보다 늦어질 경우,
-[새소식]과 [SMS]로 변경된 리워드 제공일을 알려드리겠습니다.
-*리워드 발송이 제공예상일(16.12.12)보다 일주일 이상 지연될 경우, 
-- 리워드 지연이 예상되는 시점에 즉시 [새소식]과 [SMS]로 변경된 제공일을 알려드립니다.
-- 단, 리워드 일정 지연 사유로 펀딩 취소는 불가합니다</t>
-  </si>
-  <si>
     <t xml:space="preserve">15220388989719</t>
   </si>
   <si>
     <t xml:space="preserve">#뮤지컬투모로우모닝 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326194054.png</t>
   </si>
   <si>
     <t xml:space="preserve">최고의 브리티쉬 로맨틱 뮤지컬 &lt;투모로우 모닝&gt;</t>
@@ -1213,6 +1196,12 @@
   </si>
   <si>
     <t xml:space="preserve">뮤지컬비커밍맘 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326194225.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;세일링드림&gt;의 쉼없는 도전! 가족성장뮤지컬 &lt;비커밍맘&gt;을 완성해주세요</t>
@@ -1230,6 +1219,9 @@
     <t xml:space="preserve">152203986584717</t>
   </si>
   <si>
+    <t xml:space="preserve">CASB-TH</t>
+  </si>
+  <si>
     <t xml:space="preserve">팽목의자장가 프로젝트</t>
   </si>
   <si>
@@ -1243,6 +1235,24 @@
   </si>
   <si>
     <t xml:space="preserve">세월호 참사가 일어난 지 1주년을 추모하며 '아직은 우리 사회가 좀 더 그리워해야 할-' 이들을 4월 17일과 18일 이틀 동안 춤으로 기억하고 싶습니다. 그날 밤, 팽목항에서 유난히 잠을 이루지 못할 가족분들에게 '움직임의 자장가-'를 불러드리기 위한 추모 공연을 마련했습니다. 미욱한 움직임이겠지만, 이 작은 노력들을 통해 1년 후, 다시 돌아올 우리의 봄이 너무 시리지 않았으면 하는 바람입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152206030799521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #장애인연극헬로오즈 프로젝트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장애인 연극단.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180326193234.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장애인 배우들이 들려주는, 책에는 없는 이야기 : 연극[헬로, 오즈]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 프로젝트는 장애문화예술의 발전과 장애인과 비장애인이 함께하는 세상을 만들기 위한 프로젝트입니다. 극단'휠'의 12월 정기공연 [헬로, 오즈]에 여러분을 초대합니다!</t>
   </si>
   <si>
     <t xml:space="preserve">15219999193621</t>
@@ -1709,15 +1719,16 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="Y45" activeCellId="0" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.73"/>
@@ -4016,7 +4027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>326</v>
       </c>
@@ -4142,16 +4153,22 @@
         <v>122</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>343</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>336</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>344</v>
+      </c>
       <c r="H42" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>30</v>
@@ -4163,13 +4180,13 @@
         <v>282</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>32</v>
@@ -4189,25 +4206,31 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>336</v>
       </c>
+      <c r="F43" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>350</v>
+      </c>
       <c r="H43" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>282</v>
@@ -4216,13 +4239,13 @@
         <v>282</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>349</v>
+        <v>261</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>352</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>32</v>
@@ -4242,31 +4265,31 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>336</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>282</v>
@@ -4275,13 +4298,13 @@
         <v>282</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>355</v>
+        <v>71</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>32</v>
@@ -4299,27 +4322,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>336</v>
       </c>
+      <c r="F45" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>364</v>
+      </c>
       <c r="H45" s="0" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>282</v>
@@ -4328,13 +4357,13 @@
         <v>282</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>360</v>
+        <v>261</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>366</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>32</v>
@@ -4354,31 +4383,31 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>336</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>282</v>
@@ -4393,7 +4422,7 @@
         <v>261</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>32</v>
@@ -4413,7 +4442,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>20</v>
@@ -4422,19 +4451,19 @@
         <v>327</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>200000</v>
@@ -4452,7 +4481,7 @@
         <v>118</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>32</v>
@@ -4472,7 +4501,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>20</v>
@@ -4481,19 +4510,19 @@
         <v>327</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>4000000</v>
@@ -4511,7 +4540,7 @@
         <v>40</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>32</v>
@@ -4531,28 +4560,28 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>5000000</v>
@@ -4564,13 +4593,13 @@
         <v>282</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>48</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>32</v>
@@ -4590,28 +4619,28 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1000000</v>
@@ -4629,7 +4658,7 @@
         <v>290</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>32</v>
@@ -4649,28 +4678,28 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>450000</v>
@@ -4688,7 +4717,7 @@
         <v>111</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>32</v>
@@ -4708,28 +4737,28 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>3500000</v>
@@ -4747,7 +4776,7 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>32</v>
@@ -4767,7 +4796,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>20</v>
@@ -4776,19 +4805,19 @@
         <v>334</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1200000</v>
@@ -4806,7 +4835,7 @@
         <v>137</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>32</v>
@@ -4826,7 +4855,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>20</v>
@@ -4835,19 +4864,19 @@
         <v>334</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>3110000</v>
@@ -4865,7 +4894,7 @@
         <v>96</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>32</v>
@@ -4885,28 +4914,28 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>266</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>2000000</v>
@@ -4924,7 +4953,7 @@
         <v>95</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>32</v>
@@ -4944,28 +4973,28 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>2000000</v>
@@ -4983,7 +5012,7 @@
         <v>110</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>32</v>
@@ -5003,28 +5032,28 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1000000</v>
@@ -5042,7 +5071,7 @@
         <v>57</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>32</v>
@@ -5062,7 +5091,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>20</v>
@@ -5071,19 +5100,19 @@
         <v>123</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>5000000</v>
@@ -5095,13 +5124,13 @@
         <v>282</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>32</v>
@@ -5121,28 +5150,28 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1000000</v>
@@ -5160,7 +5189,7 @@
         <v>318</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>32</v>
@@ -5180,28 +5209,28 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>2000000</v>
@@ -5216,10 +5245,10 @@
         <v>189</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>32</v>
@@ -5239,7 +5268,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>20</v>
@@ -5248,19 +5277,19 @@
         <v>123</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>500000</v>
@@ -5278,7 +5307,7 @@
         <v>189</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>32</v>
@@ -5325,7 +5354,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
